--- a/biology/Botanique/Garsington_Manor/Garsington_Manor.xlsx
+++ b/biology/Botanique/Garsington_Manor/Garsington_Manor.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
 Garsington Manor, dans le village de Garsington, près d'Oxford (Angleterre) est un édifice de l'époque Tudor, surtout connu pour avoir été autrefois la maison de Lady Ottoline Morrell, qui appartenait au Bloomsbury Group. Aujourd'hui s'y déroule chaque été une saison d'opéra, le Garsington Opera.
